--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_269.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_269.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2589285714285714</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(83.2, 91.14)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(42.52, 46.36)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:32.200000', '0:00:33.700000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1547619047619048</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G', 'G']]</t>
-        </is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1934523809523809</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G', 'G']]</t>
+          <t>[['G:7', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(75.705034, 80.407074)]</t>
+          <t>[['G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(65.382154, 77.68873)]</t>
+          <t>[('0:01:00.006734', '0:01:08.830317')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
+          <t>[('0:00:05.420000', '0:00:12.580000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1642036124794745</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_193</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_77</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08839285714285713</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['Gb:7', 'Cb', 'Gb:7', 'Cb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(68.04, 79.0)]</t>
+          <t>[['G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(63.01, 68.27)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:45.522000', '0:00:50.551000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:20.040000', '0:00:23.450000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
-        </is>
+          <t>jaah_21</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_43</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07857142857142857</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab'], ['Eb:7', 'Ab', 'Ab:7'], ['Ab/b5', 'Ab:7', 'Db/3'], ['Ab', 'Ab:7', 'Ab:7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(70.34, 77.22)]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Bb:7', 'Eb', 'Eb:7'], ['Eb', 'Eb:7', 'Ab'], ['Eb', 'Eb:7', 'Eb:7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(72.08, 79.58)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:47', '0:00:47.790000'), ('0:00:14.910000', '0:00:17.480000'), ('0:00:05.320000', '0:00:06.840000'), ('0:00:15.420000', '0:00:18.520000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:05.440000', '0:00:10.010000'), ('0:00:20.240000', '0:00:22.430000'), ('0:00:45.010000', '0:00:49.440000'), ('0:00:08.500000', '0:00:12.950000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_52</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.10801393728223</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj', 'D#:7', 'G#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2373626373626374</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F'], ['F', 'F:7', 'Bb']]</t>
+          <t>[['F:maj', 'C:7/A#', 'F:maj/A'], ['F:maj', 'A#:maj/F', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(64.58, 73.88), (15.64, 24.28)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(49.61, 55.16), (29.47, 32.22)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:01:14.900000', '0:01:26.120000'), ('0:00:17.340000', '0:00:24.400000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.147562582345191</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(19.14, 22.86)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(66.93, 74.44)]</t>
+          <t>[('0:01:08.980000', '0:01:27.200000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09027777777777778</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.75</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(44.07, 46.31)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.6, 10.46)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_72</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb:7', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb:7']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(42.1, 48.62)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(39.91, 43.27)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1152173913043478</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'E/7']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.38, 4.14)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(9.201473, 13.148866)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+          <t>[('0:00:46.900000', '0:00:59.100000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:00:09.740000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18), (1.88, 6.56)]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.36, 2.44), (13.56, 16.28)]</t>
+          <t>[('0:00:03.900000', '0:00:16.080000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:59.600000', '0:01:10.340000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1450094161958569</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E', 'B']]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(17.014988, 21.856349)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(57.152004, 63.328512)]</t>
+          <t>[('0:00:04.615532', '0:00:10.052496')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>[('0:00:35.197913', '0:00:52.299410')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(23.4, 31.32), (44.16, 48.16)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(24.76, 32.42), (13.98, 21.5)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:11.760000', '0:00:15.640000'), ('0:00:20.540000', '0:00:23.160000'), ('0:00:16.240000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_70</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.05103005103005103</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb:7'], ['Bb:7', 'Eb:7', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db'], ['Db', 'Db', 'Db:7'], ['Ab:7', 'Db:7', 'Db:7/3']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(50.0, 56.61), (19.08, 27.81), (122.89, 131.26)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(38.31, 41.1), (20.79, 23.6), (53.81, 55.47)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:14.900000', '0:00:56.280000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3506493506493507</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(8.158789, 22.58999)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(58.4, 60.68)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(40.049, 48.539)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_59</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_96</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2131782945736434</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'C', 'G/3']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:maj', 'G:maj', 'D:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(102.452811, 112.344512)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(9.967, 18.318)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
